--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H2">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I2">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J2">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N2">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O2">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P2">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q2">
-        <v>0.05580982276277777</v>
+        <v>9.563721089291999</v>
       </c>
       <c r="R2">
-        <v>0.5022884048649999</v>
+        <v>86.07348980362799</v>
       </c>
       <c r="S2">
-        <v>0.0002182731788109057</v>
+        <v>0.03744869705599308</v>
       </c>
       <c r="T2">
-        <v>0.0002182731788109057</v>
+        <v>0.03744869705599307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H3">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I3">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J3">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>72.700791</v>
       </c>
       <c r="O3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P3">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q3">
-        <v>1.027544902128333</v>
+        <v>212.649959076582</v>
       </c>
       <c r="R3">
-        <v>9.247904119154999</v>
+        <v>1913.849631689238</v>
       </c>
       <c r="S3">
-        <v>0.004018745823863805</v>
+        <v>0.8326742093456196</v>
       </c>
       <c r="T3">
-        <v>0.004018745823863804</v>
+        <v>0.8326742093456196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H4">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I4">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J4">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N4">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O4">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P4">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q4">
-        <v>0.1180624798383333</v>
+        <v>24.718697576662</v>
       </c>
       <c r="R4">
-        <v>1.062562318545</v>
+        <v>222.468278189958</v>
       </c>
       <c r="S4">
-        <v>0.00046174439367327</v>
+        <v>0.0967910929777704</v>
       </c>
       <c r="T4">
-        <v>0.0004617443936732699</v>
+        <v>0.0967910929777704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H5">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I5">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J5">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N5">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O5">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P5">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q5">
-        <v>0.00998734510222222</v>
+        <v>6.421648840867999</v>
       </c>
       <c r="R5">
-        <v>0.08988610591999997</v>
+        <v>57.79483956781201</v>
       </c>
       <c r="S5">
-        <v>3.906067884518529E-05</v>
+        <v>0.02514527345542212</v>
       </c>
       <c r="T5">
-        <v>3.906067884518529E-05</v>
+        <v>0.02514527345542212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H6">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.316217666666667</v>
+        <v>1.089882</v>
       </c>
       <c r="N6">
-        <v>3.948653</v>
+        <v>3.269646</v>
       </c>
       <c r="O6">
-        <v>0.04607034270304907</v>
+        <v>0.03774844717592688</v>
       </c>
       <c r="P6">
-        <v>0.04607034270304908</v>
+        <v>0.03774844717592687</v>
       </c>
       <c r="Q6">
-        <v>11.549817922306</v>
+        <v>0.07655076862200001</v>
       </c>
       <c r="R6">
-        <v>103.948361300754</v>
+        <v>0.688956917598</v>
       </c>
       <c r="S6">
-        <v>0.04517153697664644</v>
+        <v>0.000299750119933801</v>
       </c>
       <c r="T6">
-        <v>0.04517153697664645</v>
+        <v>0.000299750119933801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H7">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>72.700791</v>
       </c>
       <c r="O7">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152114</v>
       </c>
       <c r="P7">
-        <v>0.8482260548477534</v>
+        <v>0.8393391727152113</v>
       </c>
       <c r="Q7">
-        <v>212.649959076582</v>
+        <v>1.702111308220333</v>
       </c>
       <c r="R7">
-        <v>1913.849631689238</v>
+        <v>15.319001773983</v>
       </c>
       <c r="S7">
-        <v>0.8316776553644865</v>
+        <v>0.006664963369591752</v>
       </c>
       <c r="T7">
-        <v>0.8316776553644865</v>
+        <v>0.006664963369591753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H8">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.784383</v>
+        <v>2.816943666666667</v>
       </c>
       <c r="N8">
-        <v>8.353149</v>
+        <v>8.450831000000001</v>
       </c>
       <c r="O8">
-        <v>0.09745916824791434</v>
+        <v>0.0975658366673901</v>
       </c>
       <c r="P8">
-        <v>0.09745916824791434</v>
+        <v>0.09756583666739009</v>
       </c>
       <c r="Q8">
-        <v>24.432977531298</v>
+        <v>0.1978555502781111</v>
       </c>
       <c r="R8">
-        <v>219.896797781682</v>
+        <v>1.780699952503</v>
       </c>
       <c r="S8">
-        <v>0.09555779627253581</v>
+        <v>0.0007747436896196969</v>
       </c>
       <c r="T8">
-        <v>0.09555779627253581</v>
+        <v>0.000774743689619697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H9">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2355413333333333</v>
+        <v>0.7318113333333334</v>
       </c>
       <c r="N9">
-        <v>0.7066239999999999</v>
+        <v>2.195434</v>
       </c>
       <c r="O9">
-        <v>0.008244434201283157</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="P9">
-        <v>0.008244434201283159</v>
+        <v>0.0253465434414716</v>
       </c>
       <c r="Q9">
-        <v>2.066876613248</v>
+        <v>0.05140072049355556</v>
       </c>
       <c r="R9">
-        <v>18.601889519232</v>
+        <v>0.462606484442</v>
       </c>
       <c r="S9">
-        <v>0.0080835900608602</v>
+        <v>0.0002012699860494819</v>
       </c>
       <c r="T9">
-        <v>0.008083590060860202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1322</v>
-      </c>
-      <c r="H10">
-        <v>0.3966</v>
-      </c>
-      <c r="I10">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J10">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.316217666666667</v>
-      </c>
-      <c r="N10">
-        <v>3.948653</v>
-      </c>
-      <c r="O10">
-        <v>0.04607034270304907</v>
-      </c>
-      <c r="P10">
-        <v>0.04607034270304908</v>
-      </c>
-      <c r="Q10">
-        <v>0.1740039755333333</v>
-      </c>
-      <c r="R10">
-        <v>1.5660357798</v>
-      </c>
-      <c r="S10">
-        <v>0.0006805325475917237</v>
-      </c>
-      <c r="T10">
-        <v>0.0006805325475917237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1322</v>
-      </c>
-      <c r="H11">
-        <v>0.3966</v>
-      </c>
-      <c r="I11">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J11">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>24.233597</v>
-      </c>
-      <c r="N11">
-        <v>72.700791</v>
-      </c>
-      <c r="O11">
-        <v>0.8482260548477534</v>
-      </c>
-      <c r="P11">
-        <v>0.8482260548477534</v>
-      </c>
-      <c r="Q11">
-        <v>3.2036815234</v>
-      </c>
-      <c r="R11">
-        <v>28.8331337106</v>
-      </c>
-      <c r="S11">
-        <v>0.01252965365940321</v>
-      </c>
-      <c r="T11">
-        <v>0.01252965365940321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1322</v>
-      </c>
-      <c r="H12">
-        <v>0.3966</v>
-      </c>
-      <c r="I12">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J12">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.784383</v>
-      </c>
-      <c r="N12">
-        <v>8.353149</v>
-      </c>
-      <c r="O12">
-        <v>0.09745916824791434</v>
-      </c>
-      <c r="P12">
-        <v>0.09745916824791434</v>
-      </c>
-      <c r="Q12">
-        <v>0.3680954326</v>
-      </c>
-      <c r="R12">
-        <v>3.3128588934</v>
-      </c>
-      <c r="S12">
-        <v>0.00143962758170527</v>
-      </c>
-      <c r="T12">
-        <v>0.00143962758170527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1322</v>
-      </c>
-      <c r="H13">
-        <v>0.3966</v>
-      </c>
-      <c r="I13">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J13">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.2355413333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.7066239999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.008244434201283157</v>
-      </c>
-      <c r="P13">
-        <v>0.008244434201283159</v>
-      </c>
-      <c r="Q13">
-        <v>0.03113856426666666</v>
-      </c>
-      <c r="R13">
-        <v>0.2802470784</v>
-      </c>
-      <c r="S13">
-        <v>0.000121783461577772</v>
-      </c>
-      <c r="T13">
-        <v>0.000121783461577772</v>
+        <v>0.000201269986049482</v>
       </c>
     </row>
   </sheetData>
